--- a/DateBase/orders/Nha Thu_2025-9-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-13.xlsx
@@ -524,6 +524,9 @@
       <c r="C11" t="str">
         <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -585,7 +588,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01020825512550</v>
+        <v>010208255125514</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,9 +528,93 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>428_南蛇藤_Celastrus orbiculatus _undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>640_红辣椒_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
+light purple_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -588,7 +672,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010208255125514</v>
+        <v>0102082551255141010105101055100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,10 +611,96 @@
       <c r="C21" t="str">
         <v>595_玉兰叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>4</v>
+      </c>
+      <c r="C24" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>5</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -672,7 +758,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0102082551255141010105101055100</v>
+        <v>01020825512551410101051010551010152025155105550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-13.xlsx
@@ -697,6 +697,9 @@
       <c r="A31" t="str">
         <v>6</v>
       </c>
+      <c r="C31" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-9-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-13.xlsx
@@ -700,6 +700,9 @@
       <c r="C31" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -761,7 +764,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01020825512551410101051010551010152025155105550</v>
+        <v>010208255125514101010510105510101520251551055510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -704,9 +704,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>18_波浪黄洋桔梗_Wavy Yellow Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F33" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>7</v>
+      </c>
+      <c r="C38" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -764,7 +847,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010208255125514101010510105510101520251551055510</v>
+        <v>0102082551255141010105101055101015202515510555101561510151585137</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -787,9 +787,97 @@
         <v>7</v>
       </c>
     </row>
+    <row r="42" xml:space="preserve">
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8</v>
+      </c>
+      <c r="C44" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>476_酸浆果_Physalis_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>364_国产花边春兰叶_Cymbidium leaf_Cymbidium goeringii (Rchb. f.) Rchb. F._1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>9</v>
+      </c>
+      <c r="C47" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>10</v>
+      </c>
+      <c r="C49" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F49" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>102_绣球重瓣白_Hydrangea White D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F50" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -847,7 +935,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0102082551255141010105101055101015202515510555101561510151585137</v>
+        <v>010208255125514101010510105510101520251551055510156151015158513720101551020820200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-13.xlsx
@@ -874,6 +874,9 @@
       <c r="C51" t="str">
         <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -935,7 +938,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010208255125514101010510105510101520251551055510156151015158513720101551020820200</v>
+        <v>010208255125514101010510105510101520251551055510156151015158513720101551020820201</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-13.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,12 +875,68 @@
         <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
       </c>
       <c r="F51" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L58"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -938,7 +994,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010208255125514101010510105510101520251551055510156151015158513720101551020820201</v>
+        <v>0102082551255141010105101055101015202515510555101561510151585137201015510208202015201055555</v>
       </c>
     </row>
   </sheetData>
